--- a/results/mp/logistic/corona/confidence/210/topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/topk-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,15 +40,18 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
@@ -58,7 +61,7 @@
     <t>panic</t>
   </si>
   <si>
-    <t>drop</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>low</t>
@@ -73,9 +76,15 @@
     <t>of</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -88,61 +97,79 @@
     <t>free</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>hope</t>
@@ -151,37 +178,25 @@
     <t>well</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>you</t>
   </si>
   <si>
-    <t>,</t>
+    <t>for</t>
   </si>
   <si>
     <t>and</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
   <si>
     <t>to</t>
@@ -542,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -550,10 +565,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -611,13 +626,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7363013698630136</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C3">
-        <v>215</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>215</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -629,19 +644,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -653,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -661,13 +676,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7241379310344828</v>
+        <v>0.75</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -679,19 +694,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -703,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -711,13 +726,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5882352941176471</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -729,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.925</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -753,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -761,7 +776,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5263157894736842</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -779,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="L6">
         <v>24</v>
       </c>
-      <c r="K6">
-        <v>0.8660714285714286</v>
-      </c>
-      <c r="L6">
-        <v>97</v>
-      </c>
       <c r="M6">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -803,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -811,13 +826,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4338624338624338</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C7">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -829,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>0.8433420365535248</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>323</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>323</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -853,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>60</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -861,13 +876,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.374031007751938</v>
+        <v>0.4338624338624338</v>
       </c>
       <c r="C8">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="D8">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -879,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>323</v>
+        <v>107</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.839622641509434</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L8">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="M8">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -903,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -911,13 +926,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3220338983050847</v>
+        <v>0.3507751937984496</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -929,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>40</v>
+        <v>335</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="L9">
         <v>27</v>
       </c>
-      <c r="K9">
-        <v>0.8205128205128205</v>
-      </c>
-      <c r="L9">
-        <v>32</v>
-      </c>
       <c r="M9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -953,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -961,13 +976,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2147651006711409</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -979,19 +994,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1003,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1011,13 +1026,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1638888888888889</v>
+        <v>0.2080536912751678</v>
       </c>
       <c r="C11">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1029,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>301</v>
+        <v>118</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.795774647887324</v>
+        <v>0.804177545691906</v>
       </c>
       <c r="L11">
-        <v>113</v>
+        <v>308</v>
       </c>
       <c r="M11">
-        <v>113</v>
+        <v>308</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1053,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>29</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1061,13 +1076,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.07539682539682539</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1079,19 +1094,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>233</v>
+        <v>303</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.78125</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="M12">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1103,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1111,37 +1126,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008424599831508003</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>2354</v>
+        <v>231</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.7804878048780488</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L13">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="M13">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1153,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1161,37 +1176,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.004087193460490463</v>
+        <v>0.008864499788940482</v>
       </c>
       <c r="C14">
         <v>21</v>
       </c>
       <c r="D14">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E14">
-        <v>0.5600000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="F14">
-        <v>0.4399999999999999</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>5117</v>
+        <v>2348</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1203,21 +1218,45 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.007412181759587496</v>
+      </c>
+      <c r="C15">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>0.15</v>
+      </c>
+      <c r="F15">
+        <v>0.85</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>3080</v>
+      </c>
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>0.7758620689655172</v>
+        <v>0.75625</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1229,21 +1268,45 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.0050682261208577</v>
+      </c>
+      <c r="C16">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>61</v>
+      </c>
+      <c r="E16">
+        <v>0.57</v>
+      </c>
+      <c r="F16">
+        <v>0.43</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>5104</v>
+      </c>
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K16">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1255,47 +1318,71 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="10:17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.003827558420628526</v>
+      </c>
+      <c r="C17">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>51</v>
+      </c>
+      <c r="E17">
+        <v>0.63</v>
+      </c>
+      <c r="F17">
+        <v>0.37</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>4945</v>
+      </c>
       <c r="J17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <v>0.75</v>
+      </c>
+      <c r="L17">
+        <v>27</v>
+      </c>
+      <c r="M17">
+        <v>27</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>0.7446808510638298</v>
+      </c>
+      <c r="L18">
         <v>35</v>
       </c>
-      <c r="K17">
-        <v>0.7625</v>
-      </c>
-      <c r="L17">
-        <v>122</v>
-      </c>
-      <c r="M17">
-        <v>122</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="10:17">
-      <c r="J18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18">
-        <v>0.75</v>
-      </c>
-      <c r="L18">
-        <v>36</v>
-      </c>
       <c r="M18">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1310,18 +1397,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="10:17">
+    <row r="19" spans="1:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K19">
-        <v>0.7272727272727273</v>
+        <v>0.7421875</v>
       </c>
       <c r="L19">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="M19">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1333,21 +1420,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="10:17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>0.723404255319149</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1359,12 +1446,12 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="10:17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K21">
         <v>0.7209302325581395</v>
@@ -1388,44 +1475,44 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="10:17">
+    <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K22">
-        <v>0.6984126984126984</v>
+        <v>0.72</v>
       </c>
       <c r="L22">
+        <v>36</v>
+      </c>
+      <c r="M22">
+        <v>36</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M22">
-        <v>44</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="10:17">
-      <c r="J23" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K23">
-        <v>0.6411764705882353</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L23">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1437,21 +1524,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="10:17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K24">
-        <v>0.64</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1463,229 +1550,229 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="10:17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25">
+        <v>0.638235294117647</v>
+      </c>
+      <c r="L25">
+        <v>217</v>
+      </c>
+      <c r="M25">
+        <v>217</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="L26">
+        <v>39</v>
+      </c>
+      <c r="M26">
+        <v>39</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27">
+        <v>0.6</v>
+      </c>
+      <c r="L27">
+        <v>24</v>
+      </c>
+      <c r="M27">
+        <v>24</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28">
+        <v>0.5932203389830508</v>
+      </c>
+      <c r="L28">
+        <v>175</v>
+      </c>
+      <c r="M28">
+        <v>175</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29">
+        <v>0.5648535564853556</v>
+      </c>
+      <c r="L29">
+        <v>135</v>
+      </c>
+      <c r="M29">
+        <v>135</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30">
+        <v>0.5571428571428572</v>
+      </c>
+      <c r="L30">
+        <v>39</v>
+      </c>
+      <c r="M30">
+        <v>39</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31">
+        <v>0.5538461538461539</v>
+      </c>
+      <c r="L31">
+        <v>36</v>
+      </c>
+      <c r="M31">
+        <v>36</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K32">
+        <v>0.5425531914893617</v>
+      </c>
+      <c r="L32">
+        <v>51</v>
+      </c>
+      <c r="M32">
+        <v>51</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>43</v>
-      </c>
-      <c r="K25">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="L25">
-        <v>40</v>
-      </c>
-      <c r="M25">
-        <v>40</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="10:17">
-      <c r="J26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K26">
-        <v>0.574468085106383</v>
-      </c>
-      <c r="L26">
-        <v>54</v>
-      </c>
-      <c r="M26">
-        <v>54</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="10:17">
-      <c r="J27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K27">
-        <v>0.5627118644067797</v>
-      </c>
-      <c r="L27">
-        <v>166</v>
-      </c>
-      <c r="M27">
-        <v>166</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="10:17">
-      <c r="J28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K28">
-        <v>0.5571428571428572</v>
-      </c>
-      <c r="L28">
-        <v>39</v>
-      </c>
-      <c r="M28">
-        <v>39</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
-      <c r="J29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K29">
-        <v>0.5481171548117155</v>
-      </c>
-      <c r="L29">
-        <v>131</v>
-      </c>
-      <c r="M29">
-        <v>131</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
-      <c r="J30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K30">
-        <v>0.449438202247191</v>
-      </c>
-      <c r="L30">
-        <v>40</v>
-      </c>
-      <c r="M30">
-        <v>40</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="10:17">
-      <c r="J31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K31">
-        <v>0.3013698630136986</v>
-      </c>
-      <c r="L31">
-        <v>22</v>
-      </c>
-      <c r="M31">
-        <v>22</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
-      <c r="J32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K32">
-        <v>0.2948717948717949</v>
-      </c>
-      <c r="L32">
-        <v>23</v>
-      </c>
-      <c r="M32">
-        <v>23</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>55</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.02833333333333333</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L33">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M33">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1697,163 +1784,241 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>1166</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0.01025851456709069</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M34">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N34">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>2412</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.008630393996247656</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L35">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M35">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N35">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>2642</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.006423123243677238</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="N36">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>4950</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>0.005961719485409476</v>
+        <v>0.02337228714524207</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M37">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N37">
-        <v>0.58</v>
+        <v>0.93</v>
       </c>
       <c r="O37">
-        <v>0.42</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>3168</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>0.005333951762523191</v>
+        <v>0.01320754716981132</v>
       </c>
       <c r="L38">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M38">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N38">
-        <v>0.59</v>
+        <v>0.84</v>
       </c>
       <c r="O38">
-        <v>0.41</v>
+        <v>0.16</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>4289</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="K39">
-        <v>0.005248833592534992</v>
+        <v>0.009012392039053699</v>
       </c>
       <c r="L39">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M39">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="N39">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="O39">
-        <v>0.4399999999999999</v>
+        <v>0.29</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>5117</v>
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K40">
+        <v>0.007883143983306284</v>
+      </c>
+      <c r="L40">
+        <v>34</v>
+      </c>
+      <c r="M40">
+        <v>49</v>
+      </c>
+      <c r="N40">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O40">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41">
+        <v>0.006810663553220471</v>
+      </c>
+      <c r="L41">
+        <v>35</v>
+      </c>
+      <c r="M41">
+        <v>61</v>
+      </c>
+      <c r="N41">
+        <v>0.57</v>
+      </c>
+      <c r="O41">
+        <v>0.43</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>5104</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42">
+        <v>0.006429576049829215</v>
+      </c>
+      <c r="L42">
+        <v>32</v>
+      </c>
+      <c r="M42">
+        <v>51</v>
+      </c>
+      <c r="N42">
+        <v>0.63</v>
+      </c>
+      <c r="O42">
+        <v>0.37</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>4945</v>
       </c>
     </row>
   </sheetData>
